--- a/3rd_attendance(Main)/lolattendance_list.xlsx
+++ b/3rd_attendance(Main)/lolattendance_list.xlsx
@@ -411,7 +411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
@@ -444,6 +444,11 @@
           <t>2024-05-08</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="28.8" customHeight="1" s="4">
       <c r="C2" s="5" t="inlineStr">
@@ -1172,6 +1177,11 @@
       </c>
       <c r="C57" s="3" t="n"/>
       <c r="D57" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>P</t>
         </is>
